--- a/data/County_Population_ver2.xlsx
+++ b/data/County_Population_ver2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10499872_polimi_it/Documents/Python/Cursor/Budget_allocation_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7971DFC-F256-465E-A0FD-7B35FE7ECF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{D7971DFC-F256-465E-A0FD-7B35FE7ECF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8F625D-4815-7C48-AEA5-C24C5CE9A21E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" xr2:uid="{F05CF47E-1EE5-4445-B575-868BF6716990}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19380" xr2:uid="{F05CF47E-1EE5-4445-B575-868BF6716990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>County</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Normalizing Population</t>
+  </si>
+  <si>
+    <t>UTM Easting</t>
+  </si>
+  <si>
+    <t>UTM Northing</t>
   </si>
 </sst>
 </file>
@@ -249,16 +255,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,10 +285,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -623,596 +628,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0D56E6-2548-4002-B4C1-C2147C888BBD}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="13" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>372031</v>
       </c>
-      <c r="D2" s="8">
-        <f>C2/SUM($C$2:$C$9)</f>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D10" si="0">C2/SUM($C$2:$C$9)</f>
         <v>5.6747726276050105E-2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>29.166699999999999</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>-95.433300000000003</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
+        <v>263370.27</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3228937.49</v>
+      </c>
+      <c r="I2" s="5">
         <v>49</v>
       </c>
-      <c r="H2" s="7">
-        <f>C2/$O$2*$B$15+ C2/$O$2*$B$16 + C2/$O$2*$B$17 + G2/$O$3*$B$14</f>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:J10" si="1">C2/$Q$2*$B$15+ C2/$Q$2*$B$16 + C2/$Q$2*$B$17 + I2/$Q$3*$B$14</f>
         <v>329.73319198016088</v>
       </c>
-      <c r="I2" s="10">
-        <f>(G2/$O$3*$B$14)/H2</f>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K10" si="2">(I2/$Q$3*$B$14)/J2</f>
         <v>0.76753632626682089</v>
       </c>
-      <c r="J2" s="10">
-        <f>(C2/$O$2*$B$15)/H2</f>
+      <c r="L2" s="8">
+        <f>(C2/$Q$2*$B$15)/J2</f>
         <v>0.11985574317827674</v>
       </c>
-      <c r="K2" s="10">
-        <f>(C2/$O$2*$B$16)/H2</f>
+      <c r="M2" s="8">
+        <f>(C2/$Q$2*$B$16)/J2</f>
         <v>5.6442791539142743E-2</v>
       </c>
-      <c r="L2" s="10">
-        <f>(C2/$O$2*$B$17)/H2</f>
+      <c r="N2" s="8">
+        <f>(C2/$Q$2*$B$17)/J2</f>
         <v>5.616513901575975E-2</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <f>31.29*1000000</f>
         <v>31290000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>350682</v>
       </c>
-      <c r="D3" s="8">
-        <f>C3/SUM($C$2:$C$9)</f>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
         <v>5.3491257841249258E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>29.301200000000001</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>-94.795000000000002</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
+        <v>325661.07</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3242671.36</v>
+      </c>
+      <c r="I3" s="5">
         <v>25</v>
       </c>
-      <c r="H3" s="7">
-        <f>C3/$O$2*$B$15+ C3/$O$2*$B$16 + C3/$O$2*$B$17 + G3/$O$3*$B$14</f>
+      <c r="J3" s="5">
+        <f t="shared" si="1"/>
         <v>201.37594479482971</v>
       </c>
-      <c r="I3" s="10">
-        <f>(G3/$O$3*$B$14)/H3</f>
+      <c r="K3" s="8">
+        <f t="shared" si="2"/>
         <v>0.6412065403305891</v>
       </c>
-      <c r="J3" s="10">
-        <f t="shared" ref="J3:J10" si="0">(C3/$O$2*$B$15)/H3</f>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L10" si="3">(C3/$Q$2*$B$15)/J3</f>
         <v>0.18499000753787231</v>
       </c>
-      <c r="K3" s="10">
-        <f t="shared" ref="K3:K10" si="1">(C3/$O$2*$B$16)/H3</f>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M10" si="4">(C3/$Q$2*$B$16)/J3</f>
         <v>8.7115995908129462E-2</v>
       </c>
-      <c r="L3" s="10">
-        <f t="shared" ref="L3:L10" si="2">(C3/$O$2*$B$17)/H3</f>
+      <c r="N3" s="8">
+        <f t="shared" ref="N3:N10" si="5">(C3/$Q$2*$B$17)/J3</f>
         <v>8.6687456223409204E-2</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>1489</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f t="shared" ref="A4" si="3">A3+1</f>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4" si="6">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>46571</v>
       </c>
-      <c r="D4" s="8">
-        <f>C4/SUM($C$2:$C$9)</f>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
         <v>7.1037046923560932E-3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>29.752500000000001</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>-94.686400000000006</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
+        <v>336937.31</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3292607.38</v>
+      </c>
+      <c r="I4" s="5">
         <v>9</v>
       </c>
-      <c r="H4" s="7">
-        <f>C4/$O$2*$B$15+ C4/$O$2*$B$16 + C4/$O$2*$B$17 + G4/$O$3*$B$14</f>
+      <c r="J4" s="5">
+        <f t="shared" si="1"/>
         <v>56.07968990127452</v>
       </c>
-      <c r="I4" s="10">
-        <f>(G4/$O$3*$B$14)/H4</f>
+      <c r="K4" s="8">
+        <f t="shared" si="2"/>
         <v>0.82890055765651216</v>
       </c>
-      <c r="J4" s="10">
+      <c r="L4" s="8">
+        <f t="shared" si="3"/>
+        <v>8.8217012534206066E-2</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="4"/>
+        <v>4.1543394723003918E-2</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" si="5"/>
+        <v>4.1339035086277967E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>84808</v>
+      </c>
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>8.8217012534206066E-2</v>
-      </c>
-      <c r="K4" s="10">
+        <v>1.2936183194462981E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>30.13</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-93.89</v>
+      </c>
+      <c r="G5" s="5">
+        <v>414271.94</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3333524.79</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>4.1543394723003918E-2</v>
-      </c>
-      <c r="L4" s="10">
+        <v>53.627921412862321</v>
+      </c>
+      <c r="K5" s="8">
         <f t="shared" si="2"/>
-        <v>4.1339035086277967E-2</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7">
-        <v>84808</v>
-      </c>
-      <c r="D5" s="8">
-        <f>C5/SUM($C$2:$C$9)</f>
-        <v>1.2936183194462981E-2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>30.13</v>
-      </c>
-      <c r="F5" s="7">
-        <v>-93.89</v>
-      </c>
-      <c r="G5" s="7">
+        <v>0.67417493444531584</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16799186191555732</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="4"/>
+        <v>7.9111183085057268E-2</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="5"/>
+        <v>7.8722020554069627E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>56231</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>8.5771922130913111E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>30.34</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-94.39</v>
+      </c>
+      <c r="G6" s="5">
+        <v>366390.6</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3357279.84</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="1"/>
+        <v>27.080319661349524</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57218042245781242</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.22057912356401277</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="4"/>
+        <v>0.10387571891896542</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="5"/>
+        <v>0.10336473505920944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>91628</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3976471485499646E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>30.0593</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-94.796000000000006</v>
+      </c>
+      <c r="G7" s="5">
+        <v>326868.28000000003</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3326682.51</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>29.208357877993535</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.35366198512647523</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
+        <v>0.33324485444532309</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="4"/>
+        <v>0.15693257037313527</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="5"/>
+        <v>0.15616059005506641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="H5" s="7">
-        <f>C5/$O$2*$B$15+ C5/$O$2*$B$16 + C5/$O$2*$B$17 + G5/$O$3*$B$14</f>
-        <v>53.627921412862321</v>
-      </c>
-      <c r="I5" s="10">
-        <f>(G5/$O$3*$B$14)/H5</f>
-        <v>0.67417493444531584</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4731145</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.16799186191555732</v>
-      </c>
-      <c r="K5" s="10">
+        <v>0.72166491887047879</v>
+      </c>
+      <c r="E8" s="7">
+        <v>29.775200000000002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-95.310299999999998</v>
+      </c>
+      <c r="G8" s="5">
+        <v>276645.08</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3296090.94</v>
+      </c>
+      <c r="I8" s="5">
+        <v>96</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="1"/>
-        <v>7.9111183085057268E-2</v>
-      </c>
-      <c r="L5" s="10">
+        <v>1470.6106650979882</v>
+      </c>
+      <c r="K8" s="8">
         <f t="shared" si="2"/>
-        <v>7.8722020554069627E-2</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>56231</v>
-      </c>
-      <c r="D6" s="8">
-        <f>C6/SUM($C$2:$C$9)</f>
-        <v>8.5771922130913111E-3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>30.34</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-94.39</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7">
-        <f>C6/$O$2*$B$15+ C6/$O$2*$B$16 + C6/$O$2*$B$17 + G6/$O$3*$B$14</f>
-        <v>27.080319661349524</v>
-      </c>
-      <c r="I6" s="10">
-        <f>(G6/$O$3*$B$14)/H6</f>
-        <v>0.57218042245781242</v>
-      </c>
-      <c r="J6" s="10">
+        <v>0.33716233098235854</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34175189676238421</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="4"/>
+        <v>0.16093872980599896</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="5"/>
+        <v>0.16014704244925826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>822779</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0.22057912356401277</v>
-      </c>
-      <c r="K6" s="10">
+        <v>0.12550254542681183</v>
+      </c>
+      <c r="E9" s="7">
+        <v>29.569299999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-95.814300000000003</v>
+      </c>
+      <c r="G9" s="5">
+        <v>227345.41</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3274334.71</v>
+      </c>
+      <c r="I9" s="5">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>0.10387571891896542</v>
-      </c>
-      <c r="L6" s="10">
+        <v>319.30369151278546</v>
+      </c>
+      <c r="K9" s="8">
         <f t="shared" si="2"/>
-        <v>0.10336473505920944</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>91628</v>
-      </c>
-      <c r="D7" s="8">
-        <f>C7/SUM($C$2:$C$9)</f>
-        <v>1.3976471485499646E-2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>30.0593</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-94.796000000000006</v>
-      </c>
-      <c r="G7" s="7">
+        <v>0.46909368262198842</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.27372952601798917</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="4"/>
+        <v>0.12890545054783792</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="5"/>
+        <v>0.12827134081218447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7">
-        <f>C7/$O$2*$B$15+ C7/$O$2*$B$16 + C7/$O$2*$B$17 + G7/$O$3*$B$14</f>
-        <v>29.208357877993535</v>
-      </c>
-      <c r="I7" s="10">
-        <f>(G7/$O$3*$B$14)/H7</f>
-        <v>0.35366198512647523</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="C10" s="5">
+        <v>664744</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0.33324485444532309</v>
-      </c>
-      <c r="K7" s="10">
+        <v>0.10139668617842774</v>
+      </c>
+      <c r="E10" s="7">
+        <v>29.89</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-94.14</v>
+      </c>
+      <c r="G10" s="5">
+        <v>389924.9</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3307142.32</v>
+      </c>
+      <c r="I10" s="9">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="1"/>
-        <v>0.15693257037313527</v>
-      </c>
-      <c r="L7" s="10">
+        <v>204.10404118298871</v>
+      </c>
+      <c r="K10" s="8">
         <f t="shared" si="2"/>
-        <v>0.15616059005506641</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4731145</v>
-      </c>
-      <c r="D8" s="8">
-        <f>C8/SUM($C$2:$C$9)</f>
-        <v>0.72166491887047879</v>
-      </c>
-      <c r="E8" s="9">
-        <v>29.775200000000002</v>
-      </c>
-      <c r="F8" s="7">
-        <v>-95.310299999999998</v>
-      </c>
-      <c r="G8" s="7">
-        <v>96</v>
-      </c>
-      <c r="H8" s="7">
-        <f>C8/$O$2*$B$15+ C8/$O$2*$B$16 + C8/$O$2*$B$17 + G8/$O$3*$B$14</f>
-        <v>1470.6106650979882</v>
-      </c>
-      <c r="I8" s="10">
-        <f>(G8/$O$3*$B$14)/H8</f>
-        <v>0.33716233098235854</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.34175189676238421</v>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" si="1"/>
-        <v>0.16093872980599896</v>
-      </c>
-      <c r="L8" s="10">
-        <f t="shared" si="2"/>
-        <v>0.16014704244925826</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7">
-        <v>822779</v>
-      </c>
-      <c r="D9" s="8">
-        <f>C9/SUM($C$2:$C$9)</f>
-        <v>0.12550254542681183</v>
-      </c>
-      <c r="E9" s="9">
-        <v>29.569299999999998</v>
-      </c>
-      <c r="F9" s="7">
-        <v>-95.814300000000003</v>
-      </c>
-      <c r="G9" s="7">
-        <v>29</v>
-      </c>
-      <c r="H9" s="7">
-        <f>C9/$O$2*$B$15+ C9/$O$2*$B$16 + C9/$O$2*$B$17 + G9/$O$3*$B$14</f>
-        <v>319.30369151278546</v>
-      </c>
-      <c r="I9" s="10">
-        <f>(G9/$O$3*$B$14)/H9</f>
-        <v>0.46909368262198842</v>
-      </c>
-      <c r="J9" s="10">
-        <f t="shared" si="0"/>
-        <v>0.27372952601798917</v>
-      </c>
-      <c r="K9" s="10">
-        <f t="shared" si="1"/>
-        <v>0.12890545054783792</v>
-      </c>
-      <c r="L9" s="10">
-        <f t="shared" si="2"/>
-        <v>0.12827134081218447</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>664744</v>
-      </c>
-      <c r="D10" s="8">
-        <f>C10/SUM($C$2:$C$9)</f>
-        <v>0.10139668617842774</v>
-      </c>
-      <c r="E10" s="9">
-        <v>29.89</v>
-      </c>
-      <c r="F10" s="7">
-        <v>-94.14</v>
-      </c>
-      <c r="G10" s="11">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <f>C10/$O$2*$B$15+ C10/$O$2*$B$16 + C10/$O$2*$B$17 + G10/$O$3*$B$14</f>
-        <v>204.10404118298871</v>
-      </c>
-      <c r="I10" s="10">
-        <f>(G10/$O$3*$B$14)/H10</f>
         <v>0.32897074208836574</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" si="0"/>
+      <c r="L10" s="8">
+        <f t="shared" si="3"/>
         <v>0.34597539094938273</v>
       </c>
-      <c r="K10" s="10">
-        <f t="shared" si="1"/>
+      <c r="M10" s="8">
+        <f t="shared" si="4"/>
         <v>0.16292766913958567</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="2"/>
+      <c r="N10" s="8">
+        <f t="shared" si="5"/>
         <v>0.16212619782266571</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>7690.6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f>B14/SUM($B$14:$B$17)</f>
         <v>0.54398970107657707</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>3323.9</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" ref="C15:C17" si="4">B15/SUM($B$14:$B$17)</f>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:C17" si="7">B15/SUM($B$14:$B$17)</f>
         <v>0.23511395306067595</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>1565.3</v>
       </c>
-      <c r="C16" s="5">
-        <f t="shared" si="4"/>
+      <c r="C16" s="4">
+        <f t="shared" si="7"/>
         <v>0.11072050023342341</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>1557.6</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="4"/>
+      <c r="C17" s="4">
+        <f t="shared" si="7"/>
         <v>0.11017584562932363</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1220,12 +1278,13 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A23" r:id="rId1" xr:uid="{894EDCF5-CEDC-42C2-AE26-28275678DD3B}"/>
     <hyperlink ref="A20" r:id="rId2" xr:uid="{7EB39FD7-008B-401B-A66C-61C14A05A66C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>